--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4029.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4029.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.794475476651471</v>
+        <v>4.197005748748779</v>
       </c>
       <c r="B1">
-        <v>2.419673865624421</v>
+        <v>4.473758220672607</v>
       </c>
       <c r="C1">
-        <v>2.639026880360565</v>
+        <v>7.138808250427246</v>
       </c>
       <c r="D1">
-        <v>3.106040502934925</v>
+        <v>7.250575542449951</v>
       </c>
       <c r="E1">
-        <v>2.524903650134779</v>
+        <v>5.306873798370361</v>
       </c>
     </row>
   </sheetData>
